--- a/doc_new/400_SSL证书_SSL/catalog.xlsx
+++ b/doc_new/400_SSL证书_SSL/catalog.xlsx
@@ -15,14 +15,14 @@
     <sheet name="文档菜单" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">文档菜单!$A$4:$K$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">文档菜单!$A$4:$L$24</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="121">
   <si>
     <t>编号</t>
   </si>
@@ -575,6 +575,18 @@
       </rPr>
       <t>：400</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>doc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>api</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1059,10 +1071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="F40" sqref="F40:F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1071,30 +1083,30 @@
     <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.25" style="11" customWidth="1"/>
     <col min="4" max="4" width="13.25" style="11" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="28.75" customWidth="1"/>
-    <col min="7" max="7" width="9" style="9"/>
-    <col min="8" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="15.625" customWidth="1"/>
+    <col min="5" max="6" width="12.875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="28.75" customWidth="1"/>
+    <col min="8" max="8" width="9" style="9"/>
+    <col min="9" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
@@ -1110,26 +1122,29 @@
       <c r="E4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="H4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -1143,18 +1158,21 @@
       <c r="E5" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K5" s="4"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="14">
         <v>2</v>
       </c>
@@ -1166,18 +1184,21 @@
       <c r="E6" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="G6" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H6" s="4"/>
+      <c r="H6" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K6" s="4"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="14">
         <v>3</v>
       </c>
@@ -1189,18 +1210,21 @@
       <c r="E7" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K7" s="4"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="14">
         <v>4</v>
       </c>
@@ -1212,18 +1236,21 @@
       <c r="E8" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G8" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K8" s="4"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="14">
         <v>5</v>
       </c>
@@ -1235,18 +1262,21 @@
       <c r="E9" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K9" s="4"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="14">
         <v>6</v>
       </c>
@@ -1258,18 +1288,21 @@
       <c r="E10" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K10" s="4"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="14">
         <v>7</v>
       </c>
@@ -1281,18 +1314,21 @@
       <c r="E11" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H11" s="4"/>
+      <c r="H11" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K11" s="4"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
         <v>8</v>
       </c>
@@ -1304,18 +1340,21 @@
       <c r="E12" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="G12" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H12" s="4"/>
+      <c r="H12" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K12" s="4"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
         <v>9</v>
       </c>
@@ -1329,18 +1368,21 @@
       <c r="E13" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="G13" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H13" s="4"/>
+      <c r="H13" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K13" s="4"/>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
         <v>10</v>
       </c>
@@ -1352,18 +1394,21 @@
       <c r="E14" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="G14" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H14" s="4"/>
+      <c r="H14" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K14" s="4"/>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="14">
         <v>11</v>
       </c>
@@ -1375,18 +1420,21 @@
       <c r="E15" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="G15" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H15" s="4"/>
+      <c r="H15" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K15" s="4"/>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="14">
         <v>12</v>
       </c>
@@ -1398,18 +1446,21 @@
       <c r="E16" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H16" s="4"/>
+      <c r="H16" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K16" s="4"/>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="14">
         <v>13</v>
       </c>
@@ -1421,18 +1472,21 @@
       <c r="E17" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H17" s="4"/>
+      <c r="H17" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K17" s="4"/>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="14">
         <v>14</v>
       </c>
@@ -1444,18 +1498,21 @@
       <c r="E18" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G18" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H18" s="4"/>
+      <c r="H18" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="6"/>
-    </row>
-    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K18" s="4"/>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="14">
         <v>15</v>
       </c>
@@ -1467,18 +1524,21 @@
       <c r="E19" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G19" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H19" s="4"/>
+      <c r="H19" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K19" s="4"/>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="14">
         <v>16</v>
       </c>
@@ -1490,18 +1550,21 @@
       <c r="E20" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H20" s="4"/>
+      <c r="H20" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K20" s="4"/>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="14">
         <v>17</v>
       </c>
@@ -1515,18 +1578,21 @@
       <c r="E21" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G21" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G21" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H21" s="4"/>
+      <c r="H21" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K21" s="4"/>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="14">
         <v>18</v>
       </c>
@@ -1540,18 +1606,21 @@
       <c r="E22" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="G22" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H22" s="4"/>
+      <c r="H22" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K22" s="4"/>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="14">
         <v>19</v>
       </c>
@@ -1563,18 +1632,21 @@
       <c r="E23" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G23" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="G23" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H23" s="4"/>
+      <c r="H23" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K23" s="4"/>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="14">
         <v>20</v>
       </c>
@@ -1586,18 +1658,21 @@
       <c r="E24" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G24" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="G24" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H24" s="4"/>
+      <c r="H24" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="6"/>
-    </row>
-    <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K24" s="4"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="14">
         <v>21</v>
       </c>
@@ -1609,18 +1684,21 @@
       <c r="E25" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G25" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="G25" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H25" s="4"/>
+      <c r="H25" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="6"/>
-    </row>
-    <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K25" s="4"/>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="14">
         <v>22</v>
       </c>
@@ -1632,18 +1710,21 @@
       <c r="E26" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G26" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="G26" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H26" s="4"/>
+      <c r="H26" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="6"/>
-    </row>
-    <row r="27" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K26" s="4"/>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="14">
         <v>23</v>
       </c>
@@ -1655,18 +1736,21 @@
       <c r="E27" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G27" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="G27" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H27" s="4"/>
+      <c r="H27" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="6"/>
-    </row>
-    <row r="28" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K27" s="4"/>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="14">
         <v>24</v>
       </c>
@@ -1680,18 +1764,21 @@
       <c r="E28" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G28" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H28" s="4"/>
+      <c r="H28" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="6"/>
-    </row>
-    <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K28" s="4"/>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="14">
         <v>25</v>
       </c>
@@ -1703,18 +1790,21 @@
       <c r="E29" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G29" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="G29" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H29" s="4"/>
+      <c r="H29" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="6"/>
-    </row>
-    <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K29" s="4"/>
+      <c r="L29" s="6"/>
+    </row>
+    <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="14">
         <v>26</v>
       </c>
@@ -1726,18 +1816,21 @@
       <c r="E30" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G30" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G30" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H30" s="4"/>
+      <c r="H30" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="6"/>
-    </row>
-    <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K30" s="4"/>
+      <c r="L30" s="6"/>
+    </row>
+    <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="14">
         <v>27</v>
       </c>
@@ -1749,18 +1842,21 @@
       <c r="E31" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G31" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H31" s="4"/>
+      <c r="H31" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="6"/>
-    </row>
-    <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K31" s="4"/>
+      <c r="L31" s="6"/>
+    </row>
+    <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="14">
         <v>28</v>
       </c>
@@ -1772,18 +1868,21 @@
       <c r="E32" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G32" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="G32" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H32" s="4"/>
+      <c r="H32" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="6"/>
-    </row>
-    <row r="33" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K32" s="4"/>
+      <c r="L32" s="6"/>
+    </row>
+    <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="14">
         <v>29</v>
       </c>
@@ -1795,18 +1894,21 @@
       <c r="E33" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G33" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G33" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H33" s="4"/>
+      <c r="H33" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="6"/>
-    </row>
-    <row r="34" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K33" s="4"/>
+      <c r="L33" s="6"/>
+    </row>
+    <row r="34" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="14">
         <v>30</v>
       </c>
@@ -1818,18 +1920,21 @@
       <c r="E34" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G34" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G34" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H34" s="4"/>
+      <c r="H34" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="6"/>
-    </row>
-    <row r="35" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K34" s="4"/>
+      <c r="L34" s="6"/>
+    </row>
+    <row r="35" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="14">
         <v>31</v>
       </c>
@@ -1841,18 +1946,21 @@
       <c r="E35" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G35" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="G35" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H35" s="4"/>
+      <c r="H35" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="6"/>
-    </row>
-    <row r="36" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K35" s="4"/>
+      <c r="L35" s="6"/>
+    </row>
+    <row r="36" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="14">
         <v>32</v>
       </c>
@@ -1866,18 +1974,21 @@
       <c r="E36" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="G36" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="G36" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H36" s="4"/>
+      <c r="H36" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="6"/>
-    </row>
-    <row r="37" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K36" s="4"/>
+      <c r="L36" s="6"/>
+    </row>
+    <row r="37" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="14">
         <v>33</v>
       </c>
@@ -1891,18 +2002,21 @@
       <c r="E37" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="G37" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G37" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H37" s="4"/>
+      <c r="H37" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
-      <c r="K37" s="6"/>
-    </row>
-    <row r="38" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K37" s="4"/>
+      <c r="L37" s="6"/>
+    </row>
+    <row r="38" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="14">
         <v>34</v>
       </c>
@@ -1914,18 +2028,21 @@
       <c r="E38" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="G38" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G38" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H38" s="4"/>
+      <c r="H38" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="6"/>
-    </row>
-    <row r="39" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K38" s="4"/>
+      <c r="L38" s="6"/>
+    </row>
+    <row r="39" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="14">
         <v>35</v>
       </c>
@@ -1937,18 +2054,21 @@
       <c r="E39" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="F39" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="G39" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="G39" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H39" s="4"/>
+      <c r="H39" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="6"/>
-    </row>
-    <row r="40" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K39" s="4"/>
+      <c r="L39" s="6"/>
+    </row>
+    <row r="40" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="14">
         <v>36</v>
       </c>
@@ -1962,18 +2082,21 @@
       <c r="E40" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G40" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G40" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H40" s="4"/>
+      <c r="H40" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="6"/>
-    </row>
-    <row r="41" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K40" s="4"/>
+      <c r="L40" s="6"/>
+    </row>
+    <row r="41" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="14">
         <v>37</v>
       </c>
@@ -1985,18 +2108,21 @@
       <c r="E41" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F41" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G41" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G41" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H41" s="4"/>
+      <c r="H41" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="6"/>
-    </row>
-    <row r="42" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K41" s="4"/>
+      <c r="L41" s="6"/>
+    </row>
+    <row r="42" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="14">
         <v>38</v>
       </c>
@@ -2008,18 +2134,21 @@
       <c r="E42" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="F42" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G42" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="G42" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H42" s="4"/>
+      <c r="H42" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="6"/>
-    </row>
-    <row r="43" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K42" s="4"/>
+      <c r="L42" s="6"/>
+    </row>
+    <row r="43" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="14">
         <v>39</v>
       </c>
@@ -2031,18 +2160,21 @@
       <c r="E43" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="F43" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G43" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="G43" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H43" s="4"/>
+      <c r="H43" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="6"/>
-    </row>
-    <row r="44" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K43" s="4"/>
+      <c r="L43" s="6"/>
+    </row>
+    <row r="44" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="14">
         <v>40</v>
       </c>
@@ -2054,18 +2186,21 @@
       <c r="E44" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="F44" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G44" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G44" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H44" s="4"/>
+      <c r="H44" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="6"/>
-    </row>
-    <row r="45" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K44" s="4"/>
+      <c r="L44" s="6"/>
+    </row>
+    <row r="45" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="14">
         <v>41</v>
       </c>
@@ -2077,18 +2212,21 @@
       <c r="E45" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="F45" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G45" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="G45" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H45" s="4"/>
+      <c r="H45" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
-      <c r="K45" s="6"/>
-    </row>
-    <row r="46" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K45" s="4"/>
+      <c r="L45" s="6"/>
+    </row>
+    <row r="46" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="14">
         <v>42</v>
       </c>
@@ -2100,18 +2238,21 @@
       <c r="E46" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="F46" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G46" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="G46" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H46" s="4"/>
+      <c r="H46" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
-      <c r="K46" s="6"/>
-    </row>
-    <row r="47" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K46" s="4"/>
+      <c r="L46" s="6"/>
+    </row>
+    <row r="47" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="14">
         <v>43</v>
       </c>
@@ -2123,18 +2264,21 @@
       <c r="E47" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G47" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="G47" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H47" s="4"/>
+      <c r="H47" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
-      <c r="K47" s="6"/>
-    </row>
-    <row r="48" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K47" s="4"/>
+      <c r="L47" s="6"/>
+    </row>
+    <row r="48" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="14">
         <v>44</v>
       </c>
@@ -2146,18 +2290,21 @@
       <c r="E48" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="F48" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G48" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="G48" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H48" s="4"/>
+      <c r="H48" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
-      <c r="K48" s="6"/>
-    </row>
-    <row r="49" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K48" s="4"/>
+      <c r="L48" s="6"/>
+    </row>
+    <row r="49" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="14">
         <v>45</v>
       </c>
@@ -2169,18 +2316,21 @@
       <c r="E49" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F49" s="10" t="s">
+      <c r="F49" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G49" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="G49" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H49" s="4"/>
+      <c r="H49" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
-      <c r="K49" s="6"/>
-    </row>
-    <row r="50" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K49" s="4"/>
+      <c r="L49" s="6"/>
+    </row>
+    <row r="50" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="14">
         <v>46</v>
       </c>
@@ -2192,18 +2342,21 @@
       <c r="E50" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="F50" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G50" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="G50" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H50" s="4"/>
+      <c r="H50" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
-      <c r="K50" s="6"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K50" s="4"/>
+      <c r="L50" s="6"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51" s="14">
         <v>47</v>
       </c>
@@ -2215,20 +2368,23 @@
       <c r="E51" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="F51" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G51" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="G51" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H51" s="4"/>
+      <c r="H51" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
-      <c r="K51" s="6"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:K24">
-    <sortState ref="A5:K24">
+  <autoFilter ref="A4:L24">
+    <sortState ref="A5:L24">
       <sortCondition ref="A4:A24"/>
     </sortState>
   </autoFilter>
